--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/diercategorie/diercategorie.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/diercategorie/diercategorie.xlsx
@@ -410,13 +410,13 @@
         <v>type</v>
       </c>
       <c r="C1" t="str">
+        <v>broader</v>
+      </c>
+      <c r="D1" t="str">
+        <v>broaderTransitive</v>
+      </c>
+      <c r="E1" t="str">
         <v>inScheme</v>
-      </c>
-      <c r="D1" t="str">
-        <v>narrower</v>
-      </c>
-      <c r="E1" t="str">
-        <v>narrowerTransitive</v>
       </c>
       <c r="F1" t="str">
         <v>prefLabel</v>
@@ -425,13 +425,13 @@
         <v>semanticRelation</v>
       </c>
       <c r="H1" t="str">
+        <v>narrower</v>
+      </c>
+      <c r="I1" t="str">
+        <v>narrowerTransitive</v>
+      </c>
+      <c r="J1" t="str">
         <v>topConceptOf</v>
-      </c>
-      <c r="I1" t="str">
-        <v>broader</v>
-      </c>
-      <c r="J1" t="str">
-        <v>broaderTransitive</v>
       </c>
       <c r="K1" t="str">
         <v>hasTopConcept</v>
@@ -439,28 +439,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geiten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/0b91929d5312613e17867fd74fe03ce7</v>
       </c>
       <c r="B2" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geitenouderdan1jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokgeitenenafmestlammerentotenmet60dagen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokgeitenvan61dagentotenmetéénjaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geitenouderdan1jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokgeitenenafmestlammerentotenmet60dagen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokgeitenvan61dagentotenmetéénjaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F2" t="str">
-        <v>Geiten</v>
+        <v>P-3 + P-4 Legkippen incl. (groot)ouderdieren van legrassen</v>
       </c>
       <c r="G2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geitenouderdan1jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokgeitenenafmestlammerentotenmet60dagen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokgeitenvan61dagentotenmetéénjaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="I2" t="str">
         <v>null</v>
@@ -474,34 +474,34 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geitenouderdan1jaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/13d2845e465013f96913f6f6491fd28a</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="D3" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="E3" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F3" t="str">
-        <v>Geiten ouder dan 1 jaar</v>
+        <v>Volwassen pony's (3 jaar en ouder)</v>
       </c>
       <c r="G3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geiten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="H3" t="str">
         <v>null</v>
       </c>
       <c r="I3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geiten</v>
+        <v>null</v>
       </c>
       <c r="J3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geiten</v>
+        <v>null</v>
       </c>
       <c r="K3" t="str">
         <v>null</v>
@@ -509,28 +509,28 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/konijnen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/143ff987d8746e2cf68114ec8a251d48</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleesenopfokkonijnentotdekleeftijd|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/voedstersinclusief015ramenbijbehorendejongentotspeenleeftijd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="E4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleesenopfokkonijnentotdekleeftijd|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/voedstersinclusief015ramenbijbehorendejongentotspeenleeftijd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F4" t="str">
-        <v>Konijnen</v>
+        <v>V-3 Zeugen in dek- en drachtstal</v>
       </c>
       <c r="G4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleesenopfokkonijnentotdekleeftijd|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/voedstersinclusief015ramenbijbehorendejongentotspeenleeftijd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="H4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="I4" t="str">
         <v>null</v>
@@ -544,28 +544,28 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/nertsen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/15847b002ff45ed2b1363b201386df2c</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/nertsenperfokteef</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/nertsenperfokteef</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F5" t="str">
-        <v>Nertsen</v>
+        <v>Vleeskalkoenen</v>
       </c>
       <c r="G5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/nertsenperfokteef</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="I5" t="str">
         <v>null</v>
@@ -579,34 +579,34 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/nertsenperfokteef</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="D6" t="str">
         <v>null</v>
       </c>
       <c r="E6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F6" t="str">
-        <v>Nertsen (per fokteef)</v>
+        <v>Pluimvee</v>
       </c>
       <c r="G6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/nertsen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/0b91929d5312613e17867fd74fe03ce7|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/15847b002ff45ed2b1363b201386df2c|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/43b33d8f31aac8d4ba27007f2d3b5f0f|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4870b8f44816e0a9952885a906beafae|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/48be1a9d0d80a3ad59360cad8655fcb3|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4ca5d1ae4bb15368ff5bcba40fdd52ce|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/569c77f07559c1608831989b5e82b018|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/59d930762c9029840e34ad96583715bd|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/5ca35b6b0e77d6cad81d6506742d92ac|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/964757cbc7e777f23bca15057bb3443d|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ba8170ee9317780efc26d47fb08e7f40|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/c34d684c649907eeb63f5a8f7237237a</v>
       </c>
       <c r="H6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/0b91929d5312613e17867fd74fe03ce7|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/15847b002ff45ed2b1363b201386df2c|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/43b33d8f31aac8d4ba27007f2d3b5f0f|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4870b8f44816e0a9952885a906beafae|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/48be1a9d0d80a3ad59360cad8655fcb3|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4ca5d1ae4bb15368ff5bcba40fdd52ce|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/569c77f07559c1608831989b5e82b018|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/59d930762c9029840e34ad96583715bd|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/5ca35b6b0e77d6cad81d6506742d92ac|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/964757cbc7e777f23bca15057bb3443d|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ba8170ee9317780efc26d47fb08e7f40|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/c34d684c649907eeb63f5a8f7237237a</v>
       </c>
       <c r="I6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/nertsen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/0b91929d5312613e17867fd74fe03ce7|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/15847b002ff45ed2b1363b201386df2c|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/43b33d8f31aac8d4ba27007f2d3b5f0f|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4870b8f44816e0a9952885a906beafae|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/48be1a9d0d80a3ad59360cad8655fcb3|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4ca5d1ae4bb15368ff5bcba40fdd52ce|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/569c77f07559c1608831989b5e82b018|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/59d930762c9029840e34ad96583715bd|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/5ca35b6b0e77d6cad81d6506742d92ac|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/964757cbc7e777f23bca15057bb3443d|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ba8170ee9317780efc26d47fb08e7f40|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/c34d684c649907eeb63f5a8f7237237a</v>
       </c>
       <c r="J6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/nertsen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="K6" t="str">
         <v>null</v>
@@ -614,34 +614,34 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokgeitenenafmestlammerentotenmet60dagen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/1ec3f647e2eb5a74d7786ed74b81268b</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="D7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="E7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F7" t="str">
-        <v>Opfokgeiten en afmestlammeren tot en met 60 dagen</v>
+        <v>Paarden in opfok (jonger dan 3 jaar)</v>
       </c>
       <c r="G7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geiten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="H7" t="str">
         <v>null</v>
       </c>
       <c r="I7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geiten</v>
+        <v>null</v>
       </c>
       <c r="J7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geiten</v>
+        <v>null</v>
       </c>
       <c r="K7" t="str">
         <v>null</v>
@@ -649,34 +649,34 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokgeitenvan61dagentotenmetéénjaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/42371675ac2933265b0f6319daeff3ba</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="D8" t="str">
         <v>null</v>
       </c>
       <c r="E8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F8" t="str">
-        <v>Opfokgeiten van 61 dagen tot en met één jaar</v>
+        <v>Schapen</v>
       </c>
       <c r="G8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geiten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/650476346cc24d1bbb7434e907c4d0b5</v>
       </c>
       <c r="H8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/650476346cc24d1bbb7434e907c4d0b5</v>
       </c>
       <c r="I8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geiten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/650476346cc24d1bbb7434e907c4d0b5</v>
       </c>
       <c r="J8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geiten</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="K8" t="str">
         <v>null</v>
@@ -684,34 +684,34 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokstruisvogelstot4maanden</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/43b33d8f31aac8d4ba27007f2d3b5f0f</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F9" t="str">
-        <v>Opfokstruisvogels (tot 4 maanden)</v>
+        <v>Ouderdieren van vleeskalkoenen in opfok; van 6 tot 30 weken</v>
       </c>
       <c r="G9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H9" t="str">
         <v>null</v>
       </c>
       <c r="I9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="J9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="K9" t="str">
         <v>null</v>
@@ -719,34 +719,34 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoeneninopfok;tot6weken</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4870b8f44816e0a9952885a906beafae</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F10" t="str">
-        <v>Ouderdieren van vleeskalkoenen in opfok; tot 6 weken</v>
+        <v>Struisvogelouderdieren</v>
       </c>
       <c r="G10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H10" t="str">
         <v>null</v>
       </c>
       <c r="I10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="J10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="K10" t="str">
         <v>null</v>
@@ -754,34 +754,34 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoeneninopfok;van6tot30weken</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/48af8da7f326974040f41bc616ec3631</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e676ea924b33f8bda63e8f827437b663</v>
       </c>
       <c r="D11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e676ea924b33f8bda63e8f827437b663</v>
       </c>
       <c r="E11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F11" t="str">
-        <v>Ouderdieren van vleeskalkoenen in opfok; van 6 tot 30 weken</v>
+        <v>Vlees en opfokkonijnen tot dekleeftijd</v>
       </c>
       <c r="G11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e676ea924b33f8bda63e8f827437b663</v>
       </c>
       <c r="H11" t="str">
         <v>null</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="J11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -789,34 +789,34 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoenenvan30wekenenouder</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/48be1a9d0d80a3ad59360cad8655fcb3</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F12" t="str">
-        <v>Ouderdieren van vleeskalkoenen van 30 weken en ouder</v>
+        <v>Ouderdieren van vleeskalkoenen in opfok; tot 6 weken</v>
       </c>
       <c r="G12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H12" t="str">
         <v>null</v>
       </c>
       <c r="I12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="J12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="K12" t="str">
         <v>null</v>
@@ -824,34 +824,34 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-1p-2opfoklegkippen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4b209eabbd5324e480134415a116f377</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="D13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="E13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F13" t="str">
-        <v>P-1 + P-2 Opfok legkippen</v>
+        <v>Pony's in opfok (jonger dan 3 jaar)</v>
       </c>
       <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="H13" t="str">
         <v>null</v>
       </c>
       <c r="I13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="J13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="K13" t="str">
         <v>null</v>
@@ -859,34 +859,34 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-3p-4legkippenincl.grootouderdierenvanlegrassen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4ca5d1ae4bb15368ff5bcba40fdd52ce</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F14" t="str">
-        <v>P-3 + P-4 Legkippen incl. (groot)ouderdieren van legrassen</v>
+        <v>P-7 Opfok slachtkuikenouderdieren</v>
       </c>
       <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H14" t="str">
         <v>null</v>
       </c>
       <c r="I14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="J14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="K14" t="str">
         <v>null</v>
@@ -894,34 +894,34 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-5slachtkuikenouderdieren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/537a5fe196787a37246fb2e8934c69ce</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fba36ce54dc876621e740aa2f5187dec</v>
       </c>
       <c r="D15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fba36ce54dc876621e740aa2f5187dec</v>
       </c>
       <c r="E15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F15" t="str">
-        <v>P-5 Slachtkuikenouderdieren</v>
+        <v>Opfokgeiten en afmestlammeren tot en met 60 dagen</v>
       </c>
       <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fba36ce54dc876621e740aa2f5187dec</v>
       </c>
       <c r="H15" t="str">
         <v>null</v>
       </c>
       <c r="I15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="J15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="K15" t="str">
         <v>null</v>
@@ -929,34 +929,34 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-6slachtkuikens</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/569c77f07559c1608831989b5e82b018</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F16" t="str">
-        <v>P-6 Slachtkuikens</v>
+        <v>P-1 + P-2 Opfok legkippen</v>
       </c>
       <c r="G16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H16" t="str">
         <v>null</v>
       </c>
       <c r="I16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="J16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="K16" t="str">
         <v>null</v>
@@ -964,34 +964,34 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-7opfokslachtkuikenouderdieren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/59d930762c9029840e34ad96583715bd</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F17" t="str">
-        <v>P-7 Opfok slachtkuikenouderdieren</v>
+        <v>Ouderdieren van vleeskalkoenen van 30 weken en ouder</v>
       </c>
       <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H17" t="str">
         <v>null</v>
       </c>
       <c r="I17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="J17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="K17" t="str">
         <v>null</v>
@@ -999,28 +999,28 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/5ca35b6b0e77d6cad81d6506742d92ac</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardeninopfokjongerdan3jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ponysinopfokjongerdan3jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/volwassenpaarden3jaarenouder|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/volwassenponys3jaarenouder</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardeninopfokjongerdan3jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ponysinopfokjongerdan3jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/volwassenpaarden3jaarenouder|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/volwassenponys3jaarenouder</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F18" t="str">
-        <v>Paarden en pony's</v>
+        <v>P-6 Slachtkuikens</v>
       </c>
       <c r="G18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardeninopfokjongerdan3jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ponysinopfokjongerdan3jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/volwassenpaarden3jaarenouder|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/volwassenponys3jaarenouder</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="I18" t="str">
         <v>null</v>
@@ -1034,34 +1034,34 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardeninopfokjongerdan3jaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/614d9b3f9867315253f764aeded6df6e</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="D19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="E19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F19" t="str">
-        <v>Paarden in opfok (jonger dan 3 jaar)</v>
+        <v>R-4 Vleeskalveren tot 8 maanden</v>
       </c>
       <c r="G19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="H19" t="str">
         <v>null</v>
       </c>
       <c r="I19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>null</v>
       </c>
       <c r="J19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>null</v>
       </c>
       <c r="K19" t="str">
         <v>null</v>
@@ -1069,28 +1069,28 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/650476346cc24d1bbb7434e907c4d0b5</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/42371675ac2933265b0f6319daeff3ba</v>
       </c>
       <c r="D20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokstruisvogelstot4maanden|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoeneninopfok;tot6weken|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoeneninopfok;van6tot30weken|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoenenvan30wekenenouder|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-1p-2opfoklegkippen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-3p-4legkippenincl.grootouderdierenvanlegrassen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-5slachtkuikenouderdieren|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-6slachtkuikens|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-7opfokslachtkuikenouderdieren|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/struisvogelouderdieren|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleeskalkoenen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleesstruisvogels4tot12maanden</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/42371675ac2933265b0f6319daeff3ba</v>
       </c>
       <c r="E20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokstruisvogelstot4maanden|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoeneninopfok;tot6weken|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoeneninopfok;van6tot30weken|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoenenvan30wekenenouder|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-1p-2opfoklegkippen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-3p-4legkippenincl.grootouderdierenvanlegrassen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-5slachtkuikenouderdieren|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-6slachtkuikens|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-7opfokslachtkuikenouderdieren|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/struisvogelouderdieren|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleeskalkoenen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleesstruisvogels4tot12maanden</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F20" t="str">
-        <v>Pluimvee</v>
+        <v>Schapen ouder dan 1 jaar, inclusief lammeren tot 45 kg (stalperiode van maximaal 3 maanden in winter)</v>
       </c>
       <c r="G20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/opfokstruisvogelstot4maanden|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoeneninopfok;tot6weken|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoeneninopfok;van6tot30weken|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ouderdierenvanvleeskalkoenenvan30wekenenouder|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-1p-2opfoklegkippen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-3p-4legkippenincl.grootouderdierenvanlegrassen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-5slachtkuikenouderdieren|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-6slachtkuikens|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/p-7opfokslachtkuikenouderdieren|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/struisvogelouderdieren|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleeskalkoenen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleesstruisvogels4tot12maanden</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/42371675ac2933265b0f6319daeff3ba</v>
       </c>
       <c r="H20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="I20" t="str">
         <v>null</v>
@@ -1104,34 +1104,34 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ponysinopfokjongerdan3jaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/68c3a52e770d947355771e732529dfda</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e676ea924b33f8bda63e8f827437b663</v>
       </c>
       <c r="D21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e676ea924b33f8bda63e8f827437b663</v>
       </c>
       <c r="E21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F21" t="str">
-        <v>Pony's in opfok (jonger dan 3 jaar)</v>
+        <v>Voedsters inclusief 0,15 ram en bijbehorende jongen tot speenleeftijd</v>
       </c>
       <c r="G21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e676ea924b33f8bda63e8f827437b663</v>
       </c>
       <c r="H21" t="str">
         <v>null</v>
       </c>
       <c r="I21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>null</v>
       </c>
       <c r="J21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>null</v>
       </c>
       <c r="K21" t="str">
         <v>null</v>
@@ -1139,34 +1139,34 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-1melk-enkalfkoeienouderdan2jaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/76cbbc3330bfc989051971e4bc735dd9</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="D22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="E22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F22" t="str">
-        <v>R-1 Melk- en kalfkoeien ouder dan 2 jaar</v>
+        <v>V-5 Dekberen, 7 maanden en ouder</v>
       </c>
       <c r="G22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="H22" t="str">
         <v>null</v>
       </c>
       <c r="I22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="J22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="K22" t="str">
         <v>null</v>
@@ -1174,34 +1174,34 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-2zoogkoeienouderdan2jaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/77741fd00385becebb6db894007647e8</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="D23" t="str">
         <v>null</v>
       </c>
       <c r="E23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F23" t="str">
-        <v>R-2 Zoogkoeien ouder dan 2 jaar</v>
+        <v>Nertsen</v>
       </c>
       <c r="G23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/a7d42615b4d91a2d00e4efb9468c1a8a</v>
       </c>
       <c r="H23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/a7d42615b4d91a2d00e4efb9468c1a8a</v>
       </c>
       <c r="I23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/a7d42615b4d91a2d00e4efb9468c1a8a</v>
       </c>
       <c r="J23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -1209,34 +1209,34 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-3vrouwelijkjongveetot2jaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/78a7bce2a3245a95d6b9f7543f332de5</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="D24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="E24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F24" t="str">
-        <v>R-3 Vrouwelijk jongvee tot 2 jaar</v>
+        <v>R-6 Vleesstieren en overig vleesvee van 6 tot 24 maanden (roodvleesproductie)</v>
       </c>
       <c r="G24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="H24" t="str">
         <v>null</v>
       </c>
       <c r="I24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="J24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -1244,34 +1244,34 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-4vleeskalverentot8maanden</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/7b5f7873a6dc66adf697514fe5ef1d07</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="D25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="E25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F25" t="str">
-        <v>R-4 Vleeskalveren tot 8 maanden</v>
+        <v>R-7 Fokstieren en overig rundvee (bv. reforme zoogkoe) ouder dan 2 jaar</v>
       </c>
       <c r="G25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="H25" t="str">
         <v>null</v>
       </c>
       <c r="I25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="J25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="K25" t="str">
         <v>null</v>
@@ -1279,34 +1279,34 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-5vleesstierkalverentot6maanden</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/8c2dffa0c3f37d5acb1d2dbd9b0d4218</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="D26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="E26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F26" t="str">
-        <v>R-5 Vleesstierkalveren tot 6 maanden</v>
+        <v>V-2 Kraamzeugen</v>
       </c>
       <c r="G26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="H26" t="str">
         <v>null</v>
       </c>
       <c r="I26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="J26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="K26" t="str">
         <v>null</v>
@@ -1314,34 +1314,34 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-6vleesstierenenoverigvleesveevan6tot24maandenroodvleesproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/964757cbc7e777f23bca15057bb3443d</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F27" t="str">
-        <v>R-6 Vleesstieren en overig vleesvee van 6 tot 24 maanden (roodvleesproductie)</v>
+        <v>Vleesstruisvogels (4 tot 12 maanden)</v>
       </c>
       <c r="G27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H27" t="str">
         <v>null</v>
       </c>
       <c r="I27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="J27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="K27" t="str">
         <v>null</v>
@@ -1349,34 +1349,34 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-7fokstierenenoverigrundveebv.reformezoogkoeouderdan2jaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/9fb35e5146a975b1f348fbcd028072d8</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fba36ce54dc876621e740aa2f5187dec</v>
       </c>
       <c r="D28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fba36ce54dc876621e740aa2f5187dec</v>
       </c>
       <c r="E28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F28" t="str">
-        <v>R-7 Fokstieren en overig rundvee (bv. reforme zoogkoe) ouder dan 2 jaar</v>
+        <v>Geiten ouder dan 1 jaar</v>
       </c>
       <c r="G28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fba36ce54dc876621e740aa2f5187dec</v>
       </c>
       <c r="H28" t="str">
         <v>null</v>
       </c>
       <c r="I28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="J28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>null</v>
       </c>
       <c r="K28" t="str">
         <v>null</v>
@@ -1384,28 +1384,28 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/a7d42615b4d91a2d00e4efb9468c1a8a</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/77741fd00385becebb6db894007647e8</v>
       </c>
       <c r="D29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-1melk-enkalfkoeienouderdan2jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-2zoogkoeienouderdan2jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-3vrouwelijkjongveetot2jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-4vleeskalverentot8maanden|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-5vleesstierkalverentot6maanden|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-6vleesstierenenoverigvleesveevan6tot24maandenroodvleesproductie|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-7fokstierenenoverigrundveebv.reformezoogkoeouderdan2jaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/77741fd00385becebb6db894007647e8</v>
       </c>
       <c r="E29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-1melk-enkalfkoeienouderdan2jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-2zoogkoeienouderdan2jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-3vrouwelijkjongveetot2jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-4vleeskalverentot8maanden|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-5vleesstierkalverentot6maanden|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-6vleesstierenenoverigvleesveevan6tot24maandenroodvleesproductie|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-7fokstierenenoverigrundveebv.reformezoogkoeouderdan2jaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F29" t="str">
-        <v>Runderen</v>
+        <v>Nertsen (per fokteef)</v>
       </c>
       <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-1melk-enkalfkoeienouderdan2jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-2zoogkoeienouderdan2jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-3vrouwelijkjongveetot2jaar|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-4vleeskalverentot8maanden|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-5vleesstierkalverentot6maanden|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-6vleesstierenenoverigvleesveevan6tot24maandenroodvleesproductie|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/r-7fokstierenenoverigrundveebv.reformezoogkoeouderdan2jaar</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/77741fd00385becebb6db894007647e8</v>
       </c>
       <c r="H29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="I29" t="str">
         <v>null</v>
@@ -1419,28 +1419,28 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/schapen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/b9fb63e63c1c13e3f0b19fe46eafa700</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="D30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/schapenouderdan1jaarinclusieflammerentot45kgstalperiodevanmaximaal3maandeninwinter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="E30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/schapenouderdan1jaarinclusieflammerentot45kgstalperiodevanmaximaal3maandeninwinter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F30" t="str">
-        <v>Schapen</v>
+        <v>R-2 Zoogkoeien ouder dan 2 jaar</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/schapenouderdan1jaarinclusieflammerentot45kgstalperiodevanmaximaal3maandeninwinter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="H30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="I30" t="str">
         <v>null</v>
@@ -1454,34 +1454,34 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/schapenouderdan1jaarinclusieflammerentot45kgstalperiodevanmaximaal3maandeninwinter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ba8170ee9317780efc26d47fb08e7f40</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F31" t="str">
-        <v>Schapen ouder dan 1 jaar, inclusief lammeren tot 45 kg (stalperiode van maximaal 3 maanden in winter)</v>
+        <v>P-5 Slachtkuikenouderdieren</v>
       </c>
       <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/schapen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H31" t="str">
         <v>null</v>
       </c>
       <c r="I31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/schapen</v>
+        <v>null</v>
       </c>
       <c r="J31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/schapen</v>
+        <v>null</v>
       </c>
       <c r="K31" t="str">
         <v>null</v>
@@ -1489,34 +1489,34 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/struisvogelouderdieren</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/bba98f3431eebe0ed9c2a44787a817be</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="D32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="E32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F32" t="str">
-        <v>Struisvogelouderdieren</v>
+        <v>R-5 Vleesstierkalveren tot 6 maanden</v>
       </c>
       <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="H32" t="str">
         <v>null</v>
       </c>
       <c r="I32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="J32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="K32" t="str">
         <v>null</v>
@@ -1524,34 +1524,34 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-1biggen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/c34d684c649907eeb63f5a8f7237237a</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="D33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="E33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F33" t="str">
-        <v>V-1 Biggen</v>
+        <v>Opfokstruisvogels (tot 4 maanden)</v>
       </c>
       <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710</v>
       </c>
       <c r="H33" t="str">
         <v>null</v>
       </c>
       <c r="I33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>null</v>
       </c>
       <c r="J33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>null</v>
       </c>
       <c r="K33" t="str">
         <v>null</v>
@@ -1559,34 +1559,34 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-2kraamzeugen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/c6a392b5afa28084beeee2f0e1a52b64</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="D34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="E34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F34" t="str">
-        <v>V-2 Kraamzeugen</v>
+        <v>R-1 Melk- en kalfkoeien ouder dan 2 jaar</v>
       </c>
       <c r="G34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="H34" t="str">
         <v>null</v>
       </c>
       <c r="I34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>null</v>
       </c>
       <c r="J34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>null</v>
       </c>
       <c r="K34" t="str">
         <v>null</v>
@@ -1594,34 +1594,34 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-3zeugenindek-endrachtstal</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="D35" t="str">
         <v>null</v>
       </c>
       <c r="E35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F35" t="str">
-        <v>V-3 Zeugen in dek- en drachtstal</v>
+        <v>Varkens</v>
       </c>
       <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/143ff987d8746e2cf68114ec8a251d48|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/76cbbc3330bfc989051971e4bc735dd9|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/8c2dffa0c3f37d5acb1d2dbd9b0d4218|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d0fe3780c6ce579284b98ca8bc7de1d9|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ed1f3facf5b4413c8ea0bea66ae11715</v>
       </c>
       <c r="H35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/143ff987d8746e2cf68114ec8a251d48|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/76cbbc3330bfc989051971e4bc735dd9|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/8c2dffa0c3f37d5acb1d2dbd9b0d4218|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d0fe3780c6ce579284b98ca8bc7de1d9|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ed1f3facf5b4413c8ea0bea66ae11715</v>
       </c>
       <c r="I35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/143ff987d8746e2cf68114ec8a251d48|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/76cbbc3330bfc989051971e4bc735dd9|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/8c2dffa0c3f37d5acb1d2dbd9b0d4218|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d0fe3780c6ce579284b98ca8bc7de1d9|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ed1f3facf5b4413c8ea0bea66ae11715</v>
       </c>
       <c r="J35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="K35" t="str">
         <v>null</v>
@@ -1629,34 +1629,34 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-4vleesvarkens</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d0fe3780c6ce579284b98ca8bc7de1d9</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="D36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="E36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F36" t="str">
-        <v>V-4 Vleesvarkens</v>
+        <v>V-1 Biggen</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="H36" t="str">
         <v>null</v>
       </c>
       <c r="I36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>null</v>
       </c>
       <c r="J36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>null</v>
       </c>
       <c r="K36" t="str">
         <v>null</v>
@@ -1664,34 +1664,34 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-5dekberen7maandenenouder</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d1955e100dfc6266c4475a5a7a5f12d5</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="D37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="E37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F37" t="str">
-        <v>V-5 Dekberen, 7 maanden en ouder</v>
+        <v>R-3 Vrouwelijk jongvee tot 2 jaar</v>
       </c>
       <c r="G37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="H37" t="str">
         <v>null</v>
       </c>
       <c r="I37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>null</v>
       </c>
       <c r="J37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>null</v>
       </c>
       <c r="K37" t="str">
         <v>null</v>
@@ -1699,34 +1699,34 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="D38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-1biggen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-2kraamzeugen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-3zeugenindek-endrachtstal|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-4vleesvarkens|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-5dekberen7maandenenouder</v>
+        <v>null</v>
       </c>
       <c r="E38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-1biggen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-2kraamzeugen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-3zeugenindek-endrachtstal|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-4vleesvarkens|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-5dekberen7maandenenouder</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F38" t="str">
-        <v>Varkens</v>
+        <v>Runderen</v>
       </c>
       <c r="G38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-1biggen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-2kraamzeugen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-3zeugenindek-endrachtstal|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-4vleesvarkens|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/v-5dekberen7maandenenouder</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/614d9b3f9867315253f764aeded6df6e|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/78a7bce2a3245a95d6b9f7543f332de5|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/7b5f7873a6dc66adf697514fe5ef1d07|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/b9fb63e63c1c13e3f0b19fe46eafa700|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/bba98f3431eebe0ed9c2a44787a817be|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/c6a392b5afa28084beeee2f0e1a52b64|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d1955e100dfc6266c4475a5a7a5f12d5</v>
       </c>
       <c r="H38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/614d9b3f9867315253f764aeded6df6e|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/78a7bce2a3245a95d6b9f7543f332de5|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/7b5f7873a6dc66adf697514fe5ef1d07|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/b9fb63e63c1c13e3f0b19fe46eafa700|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/bba98f3431eebe0ed9c2a44787a817be|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/c6a392b5afa28084beeee2f0e1a52b64|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d1955e100dfc6266c4475a5a7a5f12d5</v>
       </c>
       <c r="I38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/614d9b3f9867315253f764aeded6df6e|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/78a7bce2a3245a95d6b9f7543f332de5|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/7b5f7873a6dc66adf697514fe5ef1d07|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/b9fb63e63c1c13e3f0b19fe46eafa700|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/bba98f3431eebe0ed9c2a44787a817be|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/c6a392b5afa28084beeee2f0e1a52b64|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d1955e100dfc6266c4475a5a7a5f12d5</v>
       </c>
       <c r="J38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="K38" t="str">
         <v>null</v>
@@ -1734,34 +1734,34 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleesenopfokkonijnentotdekleeftijd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="D39" t="str">
         <v>null</v>
       </c>
       <c r="E39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F39" t="str">
-        <v>Vlees en opfokkonijnen tot dekleeftijd</v>
+        <v>Paarden en pony's</v>
       </c>
       <c r="G39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/konijnen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/13d2845e465013f96913f6f6491fd28a|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/1ec3f647e2eb5a74d7786ed74b81268b|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4b209eabbd5324e480134415a116f377|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e97228d1bb905c517f5d83754bb21372</v>
       </c>
       <c r="H39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/13d2845e465013f96913f6f6491fd28a|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/1ec3f647e2eb5a74d7786ed74b81268b|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4b209eabbd5324e480134415a116f377|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e97228d1bb905c517f5d83754bb21372</v>
       </c>
       <c r="I39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/konijnen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/13d2845e465013f96913f6f6491fd28a|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/1ec3f647e2eb5a74d7786ed74b81268b|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/4b209eabbd5324e480134415a116f377|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e97228d1bb905c517f5d83754bb21372</v>
       </c>
       <c r="J39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/konijnen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="K39" t="str">
         <v>null</v>
@@ -1769,34 +1769,34 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleeskalkoenen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e676ea924b33f8bda63e8f827437b663</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="D40" t="str">
         <v>null</v>
       </c>
       <c r="E40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F40" t="str">
-        <v>Vleeskalkoenen</v>
+        <v>Konijnen</v>
       </c>
       <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/48af8da7f326974040f41bc616ec3631|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/68c3a52e770d947355771e732529dfda</v>
       </c>
       <c r="H40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/48af8da7f326974040f41bc616ec3631|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/68c3a52e770d947355771e732529dfda</v>
       </c>
       <c r="I40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/48af8da7f326974040f41bc616ec3631|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/68c3a52e770d947355771e732529dfda</v>
       </c>
       <c r="J40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="K40" t="str">
         <v>null</v>
@@ -1804,34 +1804,34 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/vleesstruisvogels4tot12maanden</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e97228d1bb905c517f5d83754bb21372</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="D41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="E41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F41" t="str">
-        <v>Vleesstruisvogels (4 tot 12 maanden)</v>
+        <v>Volwassen paarden (3 jaar en ouder)</v>
       </c>
       <c r="G41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671</v>
       </c>
       <c r="H41" t="str">
         <v>null</v>
       </c>
       <c r="I41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="J41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee</v>
+        <v>null</v>
       </c>
       <c r="K41" t="str">
         <v>null</v>
@@ -1839,34 +1839,34 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/voedstersinclusief015ramenbijbehorendejongentotspeenleeftijd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/ed1f3facf5b4413c8ea0bea66ae11715</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="D42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="E42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F42" t="str">
-        <v>Voedsters inclusief 0,15 ram en bijbehorende jongen tot speenleeftijd</v>
+        <v>V-4 Vleesvarkens</v>
       </c>
       <c r="G42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/konijnen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605</v>
       </c>
       <c r="H42" t="str">
         <v>null</v>
       </c>
       <c r="I42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/konijnen</v>
+        <v>null</v>
       </c>
       <c r="J42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/konijnen</v>
+        <v>null</v>
       </c>
       <c r="K42" t="str">
         <v>null</v>
@@ -1874,34 +1874,34 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/volwassenpaarden3jaarenouder</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fb7aa4fbb3d8cb693051cdfe88d9f1fa</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fba36ce54dc876621e740aa2f5187dec</v>
       </c>
       <c r="D43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fba36ce54dc876621e740aa2f5187dec</v>
       </c>
       <c r="E43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F43" t="str">
-        <v>Volwassen paarden (3 jaar en ouder)</v>
+        <v>Opfokgeiten van 61 dagen tot en met één jaar</v>
       </c>
       <c r="G43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fba36ce54dc876621e740aa2f5187dec</v>
       </c>
       <c r="H43" t="str">
         <v>null</v>
       </c>
       <c r="I43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>null</v>
       </c>
       <c r="J43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>null</v>
       </c>
       <c r="K43" t="str">
         <v>null</v>
@@ -1909,34 +1909,34 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/volwassenponys3jaarenouder</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fba36ce54dc876621e740aa2f5187dec</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
+        <v>null</v>
       </c>
       <c r="D44" t="str">
         <v>null</v>
       </c>
       <c r="E44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="F44" t="str">
-        <v>Volwassen pony's (3 jaar en ouder)</v>
+        <v>Geiten</v>
       </c>
       <c r="G44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/537a5fe196787a37246fb2e8934c69ce|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/9fb35e5146a975b1f348fbcd028072d8|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fb7aa4fbb3d8cb693051cdfe88d9f1fa</v>
       </c>
       <c r="H44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/537a5fe196787a37246fb2e8934c69ce|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/9fb35e5146a975b1f348fbcd028072d8|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fb7aa4fbb3d8cb693051cdfe88d9f1fa</v>
       </c>
       <c r="I44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/537a5fe196787a37246fb2e8934c69ce|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/9fb35e5146a975b1f348fbcd028072d8|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fb7aa4fbb3d8cb693051cdfe88d9f1fa</v>
       </c>
       <c r="J44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/diercategorie</v>
       </c>
       <c r="K44" t="str">
         <v>null</v>
@@ -1974,7 +1974,7 @@
         <v>null</v>
       </c>
       <c r="K45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/geiten|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/konijnen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/nertsen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/pluimvee|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/paardenenponys|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/runderen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/schapen|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/varkens</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/diercategorie/199fa216c056dbb2960b1df28dd94710|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d9fd7c30def22e286e5572fbea550671|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/cca6225bdac54ebddbde06e1d6208605|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/42371675ac2933265b0f6319daeff3ba|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/e676ea924b33f8bda63e8f827437b663|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/fba36ce54dc876621e740aa2f5187dec|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/d5b3bd16c0dfa184020ed0277b0de347|https://data.omgeving.vlaanderen.be/id/concept/diercategorie/77741fd00385becebb6db894007647e8</v>
       </c>
     </row>
   </sheetData>
